--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_1_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_1_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1346429.35377803</v>
+        <v>-1348394.797132235</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2205471.037688715</v>
+        <v>2205471.037688716</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>140.0417524496013</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>106.270887259382</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>94.45383839697553</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>66.15793172013554</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.632598604764071</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>77.14804664098561</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>382.2812817067434</v>
+        <v>382.2812817067436</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>190.8894353741171</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>117.9555558269516</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>179.0962929258064</v>
       </c>
       <c r="T5" t="n">
-        <v>220.8718769749541</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>51.64842745907353</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.27078995951912</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.6101510330648</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0376175712432</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>83.28060863594084</v>
+        <v>8.851548827170358</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.6340717775285</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0690681798563</v>
       </c>
       <c r="U6" t="n">
         <v>225.9234986122866</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>147.0297962758465</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.771924436785186</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>148.5971388304394</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.8920631579236</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>159.6190385214408</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>90.04875807993774</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>85.64047902724808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>372.3364085329072</v>
+        <v>372.3364085329071</v>
       </c>
       <c r="C11" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D11" t="n">
-        <v>344.2856084901096</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E11" t="n">
-        <v>371.5329369416884</v>
+        <v>371.5329369416883</v>
       </c>
       <c r="F11" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G11" t="n">
-        <v>401.6908603532261</v>
+        <v>401.690860353226</v>
       </c>
       <c r="H11" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492782</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176763</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3734930916125</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T11" t="n">
-        <v>198.6271876863865</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U11" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V11" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W11" t="n">
         <v>338.8435355868396</v>
@@ -1436,7 +1436,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.8405055254802</v>
+        <v>375.8405055254801</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>138.218039887639</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.0633886642566</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V13" t="n">
-        <v>241.7402101932546</v>
+        <v>63.05323980781484</v>
       </c>
       <c r="W13" t="n">
-        <v>220.3582545220102</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15360292176763</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>156.8493879680544</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G16" t="n">
-        <v>45.91860781965858</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I16" t="n">
         <v>101.6915092090627</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.7402101932546</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.1255652060175</v>
       </c>
       <c r="X16" t="n">
-        <v>215.3122222584637</v>
+        <v>176.1529299818903</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>138.218039887639</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.0100359697639</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>39.9129831070706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>188.4909732587351</v>
       </c>
       <c r="T19" t="n">
-        <v>64.73322841949725</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X19" t="n">
         <v>215.3122222584637</v>
@@ -2084,7 +2084,7 @@
         <v>354.8754586404341</v>
       </c>
       <c r="D20" t="n">
-        <v>344.28560849011</v>
+        <v>344.2856084901096</v>
       </c>
       <c r="E20" t="n">
         <v>371.5329369416884</v>
@@ -2099,7 +2099,7 @@
         <v>296.1574440492783</v>
       </c>
       <c r="I20" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176763</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3734930916125</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T20" t="n">
-        <v>198.6271876863865</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U20" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V20" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395618</v>
       </c>
       <c r="W20" t="n">
         <v>338.8435355868396</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>138.218039887639</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>130.4046500649114</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.0100359697639</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>101.6915092090628</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X22" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1872202215214</v>
+        <v>119.9807061847388</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>79.95438951148563</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>198.0511043093829</v>
       </c>
       <c r="U25" t="n">
         <v>275.8429477387573</v>
@@ -2542,7 +2542,7 @@
         <v>215.3122222584637</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>372.3364085329072</v>
+        <v>372.3364085329071</v>
       </c>
       <c r="C26" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D26" t="n">
-        <v>344.2856084901096</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E26" t="n">
-        <v>371.5329369416884</v>
+        <v>371.5329369416883</v>
       </c>
       <c r="F26" t="n">
-        <v>396.478612611138</v>
+        <v>396.4786126111396</v>
       </c>
       <c r="G26" t="n">
-        <v>401.6908603532265</v>
+        <v>401.690860353226</v>
       </c>
       <c r="H26" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492782</v>
       </c>
       <c r="I26" t="n">
-        <v>76.15360292176769</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3734930916125</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T26" t="n">
-        <v>198.6271876863865</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U26" t="n">
-        <v>240.6910642547563</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V26" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W26" t="n">
         <v>338.8435355868396</v>
@@ -2621,7 +2621,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.8405055254802</v>
+        <v>375.8405055254801</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.8493879680545</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>76.62573636851793</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.0100359697639</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.6915092090628</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U28" t="n">
         <v>275.8429477387573</v>
       </c>
       <c r="V28" t="n">
-        <v>241.7402101932546</v>
+        <v>39.91298310707153</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X28" t="n">
-        <v>215.3122222584638</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.1872202215214</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>372.3364085329071</v>
+        <v>372.3364085329072</v>
       </c>
       <c r="C29" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D29" t="n">
-        <v>344.2856084901095</v>
+        <v>344.2856084901096</v>
       </c>
       <c r="E29" t="n">
-        <v>371.5329369416883</v>
+        <v>371.5329369416884</v>
       </c>
       <c r="F29" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G29" t="n">
-        <v>401.690860353226</v>
+        <v>401.6908603532261</v>
       </c>
       <c r="H29" t="n">
-        <v>296.1574440492782</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I29" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176769</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T29" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U29" t="n">
-        <v>240.6910642547562</v>
+        <v>240.6910642547563</v>
       </c>
       <c r="V29" t="n">
-        <v>317.3548253395614</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W29" t="n">
         <v>338.8435355868396</v>
@@ -2858,7 +2858,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y29" t="n">
-        <v>375.8405055254801</v>
+        <v>375.8405055254802</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.29833811983336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.4909732587351</v>
+        <v>188.4909732587352</v>
       </c>
       <c r="T31" t="n">
-        <v>211.3873581368306</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V31" t="n">
-        <v>163.9060518233654</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>215.3122222584637</v>
+        <v>215.3122222584638</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.1872202215213</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>312.0906979216318</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>367.2551605973585</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>306.5548771798517</v>
       </c>
       <c r="I32" t="n">
-        <v>15.90789231049226</v>
+        <v>86.55103605234106</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.12778248033703</v>
+        <v>121.0957167472825</v>
       </c>
       <c r="T32" t="n">
         <v>209.0246208169599</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0884973853296</v>
+        <v>180.4453536434808</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>312.0906979216318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.0882934837995</v>
+        <v>397.4130840088953</v>
       </c>
       <c r="H35" t="n">
-        <v>306.5548771798517</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I35" t="n">
         <v>86.55103605234106</v>
@@ -3320,13 +3320,13 @@
         <v>209.0246208169599</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0884973853296</v>
+        <v>180.4453536434808</v>
       </c>
       <c r="V35" t="n">
-        <v>257.1091147282861</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>334.5657592425094</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C37" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D37" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E37" t="n">
-        <v>75.79081890472035</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F37" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G37" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H37" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I37" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S37" t="n">
         <v>128.2452626474597</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>350.5976822961028</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>392.2008362668081</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>341.4451497419507</v>
+        <v>412.0882934837995</v>
       </c>
       <c r="H41" t="n">
         <v>306.5548771798517</v>
@@ -3794,7 +3794,7 @@
         <v>209.0246208169599</v>
       </c>
       <c r="U41" t="n">
-        <v>180.4453536434809</v>
+        <v>180.4453536434808</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>315.5947949142048</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C43" t="n">
-        <v>96.60367735677907</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D43" t="n">
-        <v>77.9723292763636</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E43" t="n">
-        <v>75.79081890472041</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F43" t="n">
-        <v>74.77790428108248</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G43" t="n">
-        <v>95.90594668534082</v>
+        <v>95.90594668534077</v>
       </c>
       <c r="H43" t="n">
-        <v>78.76432535848851</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I43" t="n">
-        <v>41.44579859778739</v>
+        <v>41.44579859778733</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.81767805298125</v>
+        <v>41.81767805298119</v>
       </c>
       <c r="S43" t="n">
-        <v>128.2452626474598</v>
+        <v>128.2452626474597</v>
       </c>
       <c r="T43" t="n">
-        <v>151.1416475255554</v>
+        <v>151.1416475255553</v>
       </c>
       <c r="U43" t="n">
-        <v>215.597237127482</v>
+        <v>215.5972371274819</v>
       </c>
       <c r="V43" t="n">
-        <v>181.4944995819793</v>
+        <v>181.4944995819792</v>
       </c>
       <c r="W43" t="n">
-        <v>215.8798545947423</v>
+        <v>215.8798545947422</v>
       </c>
       <c r="X43" t="n">
-        <v>155.0665116471884</v>
+        <v>155.0665116471883</v>
       </c>
       <c r="Y43" t="n">
         <v>147.941509610246</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>312.0906979216318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,10 +3992,10 @@
         <v>412.0882934837995</v>
       </c>
       <c r="H44" t="n">
-        <v>306.5548771798517</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I44" t="n">
-        <v>86.55103605234105</v>
+        <v>15.90789231049227</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>135.7709262221858</v>
+        <v>121.0957167472825</v>
       </c>
       <c r="T44" t="n">
         <v>209.0246208169599</v>
       </c>
       <c r="U44" t="n">
-        <v>180.4453536434809</v>
+        <v>251.0884973853296</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.5627291811502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I45" t="n">
-        <v>30.18149436614535</v>
+        <v>30.18149436614534</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>95.90594668534082</v>
       </c>
       <c r="H46" t="n">
-        <v>78.76432535848851</v>
+        <v>78.76432535848849</v>
       </c>
       <c r="I46" t="n">
-        <v>41.44579859778739</v>
+        <v>41.44579859778738</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309.2697678648296</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="C2" t="n">
-        <v>309.2697678648296</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="D2" t="n">
-        <v>309.2697678648296</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="E2" t="n">
-        <v>309.2697678648296</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="F2" t="n">
-        <v>302.3242671156262</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="G2" t="n">
-        <v>286.9604071117561</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613333</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4355,25 +4355,25 @@
         <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>800.1110751765127</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T2" t="n">
-        <v>575.1708122604525</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U2" t="n">
-        <v>575.1708122604525</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V2" t="n">
-        <v>575.1708122604525</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W2" t="n">
-        <v>575.1708122604525</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="X2" t="n">
-        <v>575.1708122604525</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="Y2" t="n">
-        <v>309.2697678648296</v>
+        <v>907.4554057415451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.6842566639671</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2312273828401</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D3" t="n">
-        <v>180.2968177215888</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
         <v>21.05936271613333</v>
@@ -4407,22 +4407,22 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399122</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M3" t="n">
-        <v>659.4341920469246</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="N3" t="n">
-        <v>920.0438056590746</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O3" t="n">
-        <v>1052.968135806666</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P3" t="n">
         <v>1052.968135806666</v>
@@ -4431,28 +4431,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="U3" t="n">
-        <v>824.7478070488712</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="V3" t="n">
-        <v>757.9216133921686</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="W3" t="n">
-        <v>503.6842566639671</v>
+        <v>498.6806083349168</v>
       </c>
       <c r="X3" t="n">
-        <v>503.6842566639671</v>
+        <v>498.6806083349168</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.6842566639671</v>
+        <v>290.9203095699629</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="I4" t="n">
         <v>21.05936271613333</v>
@@ -4507,31 +4507,31 @@
         <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.9364106871838</v>
+        <v>974.7540221761913</v>
       </c>
       <c r="C5" t="n">
-        <v>781.9364106871838</v>
+        <v>974.7540221761913</v>
       </c>
       <c r="D5" t="n">
-        <v>423.6707120804333</v>
+        <v>616.4883235694407</v>
       </c>
       <c r="E5" t="n">
-        <v>423.6707120804333</v>
+        <v>616.4883235694407</v>
       </c>
       <c r="F5" t="n">
-        <v>416.7252113312298</v>
+        <v>609.5428228202372</v>
       </c>
       <c r="G5" t="n">
-        <v>30.58250253653947</v>
+        <v>223.4001140255467</v>
       </c>
       <c r="H5" t="n">
-        <v>30.58250253653947</v>
+        <v>223.4001140255467</v>
       </c>
       <c r="I5" t="n">
-        <v>30.58250253653947</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="J5" t="n">
-        <v>61.44130107382176</v>
+        <v>61.44130107382193</v>
       </c>
       <c r="K5" t="n">
-        <v>228.4354450105907</v>
+        <v>228.4354450105909</v>
       </c>
       <c r="L5" t="n">
-        <v>487.8830747386908</v>
+        <v>487.8830747386911</v>
       </c>
       <c r="M5" t="n">
-        <v>793.1750984905423</v>
+        <v>793.1750984905427</v>
       </c>
       <c r="N5" t="n">
-        <v>1088.77506881387</v>
+        <v>1088.775068813871</v>
       </c>
       <c r="O5" t="n">
-        <v>1322.714100731248</v>
+        <v>1322.714100731249</v>
       </c>
       <c r="P5" t="n">
-        <v>1484.701269194407</v>
+        <v>1484.701269194408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1529.125126826974</v>
+        <v>1529.125126826975</v>
       </c>
       <c r="R5" t="n">
-        <v>1409.978100739144</v>
+        <v>1529.125126826975</v>
       </c>
       <c r="S5" t="n">
-        <v>1409.978100739144</v>
+        <v>1348.219780437271</v>
       </c>
       <c r="T5" t="n">
-        <v>1186.875194703837</v>
+        <v>1348.219780437271</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.705065957298</v>
+        <v>1348.219780437271</v>
       </c>
       <c r="V5" t="n">
-        <v>1134.705065957298</v>
+        <v>1348.219780437271</v>
       </c>
       <c r="W5" t="n">
-        <v>781.9364106871838</v>
+        <v>1348.219780437271</v>
       </c>
       <c r="X5" t="n">
-        <v>781.9364106871838</v>
+        <v>974.7540221761913</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.9364106871838</v>
+        <v>974.7540221761913</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.8185015458608</v>
+        <v>338.7543672032463</v>
       </c>
       <c r="C6" t="n">
-        <v>397.8185015458608</v>
+        <v>338.7543672032463</v>
       </c>
       <c r="D6" t="n">
-        <v>397.8185015458608</v>
+        <v>189.819957541995</v>
       </c>
       <c r="E6" t="n">
-        <v>238.5810465404053</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="F6" t="n">
-        <v>238.5810465404053</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1459051671536</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4285808913306</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="I6" t="n">
-        <v>30.58250253653947</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="J6" t="n">
-        <v>55.26841185840794</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="K6" t="n">
-        <v>55.26841185840794</v>
+        <v>199.3954965962097</v>
       </c>
       <c r="L6" t="n">
-        <v>343.6627114758601</v>
+        <v>225.3947882955458</v>
       </c>
       <c r="M6" t="n">
-        <v>722.1211803655361</v>
+        <v>603.853257185222</v>
       </c>
       <c r="N6" t="n">
-        <v>1100.579649255212</v>
+        <v>982.3117260748983</v>
       </c>
       <c r="O6" t="n">
-        <v>1191.347089158584</v>
+        <v>1295.093358870255</v>
       </c>
       <c r="P6" t="n">
-        <v>1425.378857115303</v>
+        <v>1529.125126826975</v>
       </c>
       <c r="Q6" t="n">
-        <v>1529.125126826974</v>
+        <v>1529.125126826975</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.003299921983</v>
+        <v>1520.184168415691</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.003299921983</v>
+        <v>1351.866924195966</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.003299921983</v>
+        <v>1150.787057347626</v>
       </c>
       <c r="U6" t="n">
-        <v>1216.797745768158</v>
+        <v>922.581503193801</v>
       </c>
       <c r="V6" t="n">
-        <v>981.6456375364155</v>
+        <v>922.581503193801</v>
       </c>
       <c r="W6" t="n">
-        <v>981.6456375364155</v>
+        <v>922.581503193801</v>
       </c>
       <c r="X6" t="n">
-        <v>773.7941373308827</v>
+        <v>714.7300029882682</v>
       </c>
       <c r="Y6" t="n">
-        <v>566.0338385659288</v>
+        <v>506.9697042233143</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="C7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="D7" t="n">
-        <v>329.1955683004643</v>
+        <v>180.6806225672864</v>
       </c>
       <c r="E7" t="n">
-        <v>181.2824747180712</v>
+        <v>180.6806225672864</v>
       </c>
       <c r="F7" t="n">
-        <v>34.39252722016087</v>
+        <v>180.6806225672864</v>
       </c>
       <c r="G7" t="n">
-        <v>30.58250253653947</v>
+        <v>180.6806225672864</v>
       </c>
       <c r="H7" t="n">
-        <v>30.58250253653947</v>
+        <v>180.6806225672864</v>
       </c>
       <c r="I7" t="n">
-        <v>30.58250253653947</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="J7" t="n">
-        <v>30.58250253653947</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="K7" t="n">
-        <v>34.74785162775807</v>
+        <v>34.74785162775813</v>
       </c>
       <c r="L7" t="n">
-        <v>95.60449898798062</v>
+        <v>95.60449898798075</v>
       </c>
       <c r="M7" t="n">
-        <v>170.1584239922562</v>
+        <v>170.1584239922564</v>
       </c>
       <c r="N7" t="n">
-        <v>248.3742397179991</v>
+        <v>248.3742397179994</v>
       </c>
       <c r="O7" t="n">
-        <v>304.6029096228519</v>
+        <v>304.6029096228522</v>
       </c>
       <c r="P7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="Q7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="R7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="S7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="T7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="U7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="V7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="W7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="X7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="Y7" t="n">
-        <v>329.1955683004643</v>
+        <v>329.1955683004647</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="D8" t="n">
-        <v>1551.447402037877</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="E8" t="n">
-        <v>1165.659149439633</v>
+        <v>1197.590022758555</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>786.6041179689473</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>368.6403098671342</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>274.7355609638946</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C11" t="n">
-        <v>1999.551214482916</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D11" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E11" t="n">
-        <v>1276.502178693221</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F11" t="n">
-        <v>876.0187316112638</v>
+        <v>876.0187316112647</v>
       </c>
       <c r="G11" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201273</v>
       </c>
       <c r="H11" t="n">
-        <v>171.1214544370171</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I11" t="n">
         <v>94.19862320290831</v>
@@ -5054,7 +5054,7 @@
         <v>3091.984352769974</v>
       </c>
       <c r="O11" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P11" t="n">
         <v>4324.639697485002</v>
@@ -5069,7 +5069,7 @@
         <v>4583.291268133686</v>
       </c>
       <c r="T11" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U11" t="n">
         <v>4139.535458092127</v>
@@ -5084,7 +5084,7 @@
         <v>3113.745530340312</v>
       </c>
       <c r="Y11" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J12" t="n">
-        <v>254.3254551313249</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K12" t="n">
-        <v>392.8079739958882</v>
+        <v>267.9778490088835</v>
       </c>
       <c r="L12" t="n">
-        <v>992.4692934191603</v>
+        <v>867.6391684321555</v>
       </c>
       <c r="M12" t="n">
-        <v>1283.176977516756</v>
+        <v>1619.394865642251</v>
       </c>
       <c r="N12" t="n">
-        <v>1881.904256761413</v>
+        <v>1932.205362025946</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.844953262855</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q12" t="n">
         <v>2625.087782060009</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.9754768921099</v>
+        <v>474.742132995658</v>
       </c>
       <c r="C13" t="n">
-        <v>391.5417516718529</v>
+        <v>474.742132995658</v>
       </c>
       <c r="D13" t="n">
-        <v>251.9275699671671</v>
+        <v>474.742132995658</v>
       </c>
       <c r="E13" t="n">
-        <v>251.9275699671671</v>
+        <v>337.3314971209149</v>
       </c>
       <c r="F13" t="n">
-        <v>251.9275699671671</v>
+        <v>337.3314971209149</v>
       </c>
       <c r="G13" t="n">
-        <v>94.19862320290831</v>
+        <v>337.3314971209149</v>
       </c>
       <c r="H13" t="n">
-        <v>94.19862320290831</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="I13" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K13" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L13" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639833</v>
       </c>
       <c r="M13" t="n">
         <v>790.1587150323426</v>
@@ -5221,28 +5221,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R13" t="n">
-        <v>1420.659109327292</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S13" t="n">
-        <v>1230.264186843722</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T13" t="n">
-        <v>1016.741602867125</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="U13" t="n">
-        <v>1016.741602867125</v>
+        <v>1245.124201171231</v>
       </c>
       <c r="V13" t="n">
-        <v>772.5595723688879</v>
+        <v>1181.434059951216</v>
       </c>
       <c r="W13" t="n">
-        <v>549.9754768921099</v>
+        <v>902.5193476219056</v>
       </c>
       <c r="X13" t="n">
-        <v>549.9754768921099</v>
+        <v>685.0322544315381</v>
       </c>
       <c r="Y13" t="n">
-        <v>549.9754768921099</v>
+        <v>474.742132995658</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F14" t="n">
-        <v>876.0187316112647</v>
+        <v>876.0187316112642</v>
       </c>
       <c r="G14" t="n">
-        <v>470.2703878201266</v>
+        <v>470.2703878201261</v>
       </c>
       <c r="H14" t="n">
-        <v>171.1214544370173</v>
+        <v>171.1214544370168</v>
       </c>
       <c r="I14" t="n">
         <v>94.19862320290831</v>
@@ -5279,7 +5279,7 @@
         <v>352.4625266553649</v>
       </c>
       <c r="K14" t="n">
-        <v>860.27797416778</v>
+        <v>860.2779741677801</v>
       </c>
       <c r="L14" t="n">
         <v>1542.544568462678</v>
@@ -5288,7 +5288,7 @@
         <v>2318.304158787663</v>
       </c>
       <c r="N14" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O14" t="n">
         <v>3777.360983129468</v>
@@ -5303,13 +5303,13 @@
         <v>4709.931160145416</v>
       </c>
       <c r="S14" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T14" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U14" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V14" t="n">
         <v>3818.975028456206</v>
@@ -5355,28 +5355,28 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J15" t="n">
-        <v>173.1944447113567</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K15" t="n">
-        <v>311.6769635759201</v>
+        <v>654.628558638341</v>
       </c>
       <c r="L15" t="n">
-        <v>544.2063411487675</v>
+        <v>963.1079353265848</v>
       </c>
       <c r="M15" t="n">
-        <v>1295.962038358863</v>
+        <v>1253.81561942418</v>
       </c>
       <c r="N15" t="n">
-        <v>2083.321485342676</v>
+        <v>1566.626115807875</v>
       </c>
       <c r="O15" t="n">
-        <v>2347.262181844118</v>
+        <v>1830.566812309317</v>
       </c>
       <c r="P15" t="n">
-        <v>2539.764793966091</v>
+        <v>2338.347565384828</v>
       </c>
       <c r="Q15" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R15" t="n">
         <v>2625.087782060009</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401.7334767350049</v>
+        <v>1066.90647647512</v>
       </c>
       <c r="C16" t="n">
-        <v>243.299751514748</v>
+        <v>908.4727512548629</v>
       </c>
       <c r="D16" t="n">
-        <v>243.299751514748</v>
+        <v>768.8585695501772</v>
       </c>
       <c r="E16" t="n">
-        <v>243.299751514748</v>
+        <v>631.4479336754341</v>
       </c>
       <c r="F16" t="n">
-        <v>243.299751514748</v>
+        <v>495.0604438851738</v>
       </c>
       <c r="G16" t="n">
-        <v>196.9173193736787</v>
+        <v>337.3314971209149</v>
       </c>
       <c r="H16" t="n">
         <v>196.9173193736787</v>
@@ -5443,16 +5443,16 @@
         <v>516.9148004639832</v>
       </c>
       <c r="M16" t="n">
-        <v>790.1587150323423</v>
+        <v>790.1587150323427</v>
       </c>
       <c r="N16" t="n">
         <v>1062.584871907533</v>
       </c>
       <c r="O16" t="n">
-        <v>1298.984009272058</v>
+        <v>1298.984009272059</v>
       </c>
       <c r="P16" t="n">
-        <v>1479.229254818016</v>
+        <v>1479.229254818017</v>
       </c>
       <c r="Q16" t="n">
         <v>1523.75344131139</v>
@@ -5470,16 +5470,16 @@
         <v>1523.75344131139</v>
       </c>
       <c r="V16" t="n">
-        <v>1279.571410813153</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="W16" t="n">
-        <v>1000.656698483842</v>
+        <v>1244.83872898208</v>
       </c>
       <c r="X16" t="n">
-        <v>783.1696052934749</v>
+        <v>1066.90647647512</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.8794838575948</v>
+        <v>1066.90647647512</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1999.551214482917</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.787973583817</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E17" t="n">
         <v>1276.502178693222</v>
       </c>
       <c r="F17" t="n">
-        <v>876.0187316112647</v>
+        <v>876.0187316112645</v>
       </c>
       <c r="G17" t="n">
-        <v>470.2703878201272</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H17" t="n">
-        <v>171.1214544370177</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I17" t="n">
         <v>94.19862320290831</v>
@@ -5525,7 +5525,7 @@
         <v>2318.304158787663</v>
       </c>
       <c r="N17" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O17" t="n">
         <v>3777.360983129468</v>
@@ -5549,13 +5549,13 @@
         <v>4139.535458092128</v>
       </c>
       <c r="V17" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W17" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X17" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y17" t="n">
         <v>2734.108656072151</v>
@@ -5598,16 +5598,16 @@
         <v>654.628558638341</v>
       </c>
       <c r="L18" t="n">
-        <v>963.1079353265848</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M18" t="n">
-        <v>1253.81561942418</v>
+        <v>1569.093760377718</v>
       </c>
       <c r="N18" t="n">
-        <v>1566.626115807875</v>
+        <v>1881.904256761413</v>
       </c>
       <c r="O18" t="n">
-        <v>1830.566812309317</v>
+        <v>2145.844953262855</v>
       </c>
       <c r="P18" t="n">
         <v>2338.347565384828</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>669.048197665348</v>
+        <v>134.514767755505</v>
       </c>
       <c r="C19" t="n">
-        <v>510.6144724450909</v>
+        <v>134.514767755505</v>
       </c>
       <c r="D19" t="n">
-        <v>371.000290740405</v>
+        <v>134.514767755505</v>
       </c>
       <c r="E19" t="n">
-        <v>371.000290740405</v>
+        <v>134.514767755505</v>
       </c>
       <c r="F19" t="n">
-        <v>234.6128009501446</v>
+        <v>134.514767755505</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6128009501446</v>
+        <v>134.514767755505</v>
       </c>
       <c r="H19" t="n">
-        <v>94.19862320290831</v>
+        <v>134.514767755505</v>
       </c>
       <c r="I19" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J19" t="n">
-        <v>112.988625652993</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K19" t="n">
-        <v>267.0813524192172</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L19" t="n">
-        <v>516.9148004639827</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M19" t="n">
-        <v>790.1587150323421</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N19" t="n">
-        <v>1062.584871907532</v>
+        <v>1062.584871907533</v>
       </c>
       <c r="O19" t="n">
         <v>1298.984009272058</v>
@@ -5701,22 +5701,22 @@
         <v>1333.358518827819</v>
       </c>
       <c r="T19" t="n">
-        <v>1267.971419414185</v>
+        <v>1119.835934851222</v>
       </c>
       <c r="U19" t="n">
-        <v>1267.971419414185</v>
+        <v>841.2066947110633</v>
       </c>
       <c r="V19" t="n">
-        <v>1267.971419414185</v>
+        <v>841.2066947110633</v>
       </c>
       <c r="W19" t="n">
-        <v>1267.971419414185</v>
+        <v>562.2919823817526</v>
       </c>
       <c r="X19" t="n">
-        <v>1050.484326223818</v>
+        <v>344.8048891913852</v>
       </c>
       <c r="Y19" t="n">
-        <v>840.1942047879377</v>
+        <v>134.514767755505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C20" t="n">
         <v>1999.551214482917</v>
@@ -5738,25 +5738,25 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F20" t="n">
-        <v>876.018731611264</v>
+        <v>876.0187316112639</v>
       </c>
       <c r="G20" t="n">
-        <v>470.2703878201265</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H20" t="n">
-        <v>171.1214544370171</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I20" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J20" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K20" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L20" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M20" t="n">
         <v>2318.304158787662</v>
@@ -5768,7 +5768,7 @@
         <v>3777.360983129468</v>
       </c>
       <c r="P20" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q20" t="n">
         <v>4658.401460222604</v>
@@ -5786,16 +5786,16 @@
         <v>4139.535458092128</v>
       </c>
       <c r="V20" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W20" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X20" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5835,16 @@
         <v>654.628558638341</v>
       </c>
       <c r="L21" t="n">
-        <v>887.1579362111884</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M21" t="n">
-        <v>1177.865620308784</v>
+        <v>1544.997562159209</v>
       </c>
       <c r="N21" t="n">
-        <v>1490.676116692479</v>
+        <v>1857.808058542903</v>
       </c>
       <c r="O21" t="n">
-        <v>1830.566812309317</v>
+        <v>2145.844953262855</v>
       </c>
       <c r="P21" t="n">
         <v>2338.347565384828</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.8302195625522</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="C22" t="n">
-        <v>766.3964943422952</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="D22" t="n">
-        <v>626.7823126376095</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="E22" t="n">
-        <v>626.7823126376095</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="F22" t="n">
-        <v>495.0604438851738</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="G22" t="n">
-        <v>337.3314971209151</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="H22" t="n">
         <v>196.9173193736788</v>
@@ -5908,7 +5908,7 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K22" t="n">
         <v>267.0813524192175</v>
@@ -5917,7 +5917,7 @@
         <v>516.9148004639831</v>
       </c>
       <c r="M22" t="n">
-        <v>790.1587150323423</v>
+        <v>790.1587150323425</v>
       </c>
       <c r="N22" t="n">
         <v>1062.584871907533</v>
@@ -5929,31 +5929,31 @@
         <v>1479.229254818016</v>
       </c>
       <c r="Q22" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R22" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S22" t="n">
-        <v>1523.753441311389</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="T22" t="n">
-        <v>1523.753441311389</v>
+        <v>1119.835934851223</v>
       </c>
       <c r="U22" t="n">
-        <v>1523.753441311389</v>
+        <v>841.2066947110636</v>
       </c>
       <c r="V22" t="n">
-        <v>1523.753441311389</v>
+        <v>597.0246642128267</v>
       </c>
       <c r="W22" t="n">
-        <v>1523.753441311389</v>
+        <v>318.1099518835159</v>
       </c>
       <c r="X22" t="n">
-        <v>1306.266348121022</v>
+        <v>318.1099518835159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.976226685142</v>
+        <v>196.9173193736788</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J23" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K23" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677805</v>
       </c>
       <c r="L23" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462679</v>
       </c>
       <c r="M23" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787664</v>
       </c>
       <c r="N23" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O23" t="n">
         <v>3777.360983129468</v>
@@ -6066,10 +6066,10 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J24" t="n">
-        <v>129.4953301443201</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K24" t="n">
-        <v>529.7984336513363</v>
+        <v>654.628558638341</v>
       </c>
       <c r="L24" t="n">
         <v>963.1079353265848</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>333.3943580307264</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="C25" t="n">
-        <v>174.9606328104696</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="D25" t="n">
         <v>94.19862320290831</v>
@@ -6145,16 +6145,16 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J25" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529932</v>
       </c>
       <c r="K25" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L25" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M25" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323422</v>
       </c>
       <c r="N25" t="n">
         <v>1062.584871907533</v>
@@ -6175,22 +6175,22 @@
         <v>1523.75344131139</v>
       </c>
       <c r="T25" t="n">
-        <v>1523.75344131139</v>
+        <v>1323.701820796862</v>
       </c>
       <c r="U25" t="n">
-        <v>1245.124201171231</v>
+        <v>1045.072580656703</v>
       </c>
       <c r="V25" t="n">
-        <v>1000.942170672994</v>
+        <v>800.8905501584665</v>
       </c>
       <c r="W25" t="n">
-        <v>722.0274583436835</v>
+        <v>521.9758378291558</v>
       </c>
       <c r="X25" t="n">
-        <v>504.5403651533161</v>
+        <v>304.4887446387884</v>
       </c>
       <c r="Y25" t="n">
-        <v>504.5403651533161</v>
+        <v>94.19862320290831</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.01127371568</v>
       </c>
       <c r="C26" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482918</v>
       </c>
       <c r="D26" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583817</v>
       </c>
       <c r="E26" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693223</v>
       </c>
       <c r="F26" t="n">
-        <v>876.0187316112645</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G26" t="n">
-        <v>470.2703878201265</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H26" t="n">
-        <v>171.1214544370171</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I26" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J26" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L26" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M26" t="n">
         <v>2318.304158787662</v>
@@ -6242,7 +6242,7 @@
         <v>3777.360983129468</v>
       </c>
       <c r="P26" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q26" t="n">
         <v>4658.401460222604</v>
@@ -6303,19 +6303,19 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J27" t="n">
-        <v>129.4953301443201</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K27" t="n">
-        <v>267.9778490088835</v>
+        <v>654.628558638341</v>
       </c>
       <c r="L27" t="n">
-        <v>500.5072265817309</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M27" t="n">
-        <v>1252.262923791826</v>
+        <v>1777.070275236209</v>
       </c>
       <c r="N27" t="n">
-        <v>2039.622370775639</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O27" t="n">
         <v>2353.821468121346</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.1649560467457</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="C28" t="n">
-        <v>414.7312308264887</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="D28" t="n">
-        <v>414.7312308264887</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="E28" t="n">
-        <v>414.7312308264887</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="F28" t="n">
-        <v>337.331497120915</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="G28" t="n">
-        <v>337.331497120915</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H28" t="n">
-        <v>196.9173193736788</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I28" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J28" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K28" t="n">
-        <v>267.0813524192173</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L28" t="n">
-        <v>516.9148004639828</v>
+        <v>516.9148004639833</v>
       </c>
       <c r="M28" t="n">
-        <v>790.1587150323421</v>
+        <v>790.1587150323429</v>
       </c>
       <c r="N28" t="n">
-        <v>1062.584871907532</v>
+        <v>1062.584871907533</v>
       </c>
       <c r="O28" t="n">
-        <v>1298.984009272058</v>
+        <v>1298.984009272059</v>
       </c>
       <c r="P28" t="n">
-        <v>1479.229254818016</v>
+        <v>1479.229254818017</v>
       </c>
       <c r="Q28" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.753441311391</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.753441311391</v>
       </c>
       <c r="S28" t="n">
-        <v>1523.753441311389</v>
+        <v>1333.35851882782</v>
       </c>
       <c r="T28" t="n">
-        <v>1523.753441311389</v>
+        <v>1119.835934851223</v>
       </c>
       <c r="U28" t="n">
-        <v>1245.12420117123</v>
+        <v>841.2066947110641</v>
       </c>
       <c r="V28" t="n">
-        <v>1000.942170672993</v>
+        <v>800.8905501584666</v>
       </c>
       <c r="W28" t="n">
-        <v>1000.942170672993</v>
+        <v>521.9758378291559</v>
       </c>
       <c r="X28" t="n">
-        <v>783.4550774826259</v>
+        <v>304.4887446387885</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.1649560467457</v>
+        <v>94.19862320290831</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C29" t="n">
         <v>1999.551214482917</v>
@@ -6449,28 +6449,28 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F29" t="n">
-        <v>876.0187316112647</v>
+        <v>876.0187316112639</v>
       </c>
       <c r="G29" t="n">
-        <v>470.2703878201273</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H29" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I29" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J29" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K29" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677805</v>
       </c>
       <c r="L29" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462679</v>
       </c>
       <c r="M29" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787664</v>
       </c>
       <c r="N29" t="n">
         <v>3091.984352769975</v>
@@ -6491,22 +6491,22 @@
         <v>4583.291268133686</v>
       </c>
       <c r="T29" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U29" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092128</v>
       </c>
       <c r="V29" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456207</v>
       </c>
       <c r="W29" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893743</v>
       </c>
       <c r="X29" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340313</v>
       </c>
       <c r="Y29" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J30" t="n">
-        <v>129.4953301443201</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K30" t="n">
-        <v>267.9778490088835</v>
+        <v>654.628558638341</v>
       </c>
       <c r="L30" t="n">
-        <v>500.5072265817309</v>
+        <v>887.1579362111884</v>
       </c>
       <c r="M30" t="n">
-        <v>1252.262923791826</v>
+        <v>1177.865620308784</v>
       </c>
       <c r="N30" t="n">
-        <v>2039.622370775639</v>
+        <v>1881.904256761413</v>
       </c>
       <c r="O30" t="n">
-        <v>2303.563067277081</v>
+        <v>2145.844953262855</v>
       </c>
       <c r="P30" t="n">
-        <v>2539.764793966091</v>
+        <v>2338.347565384828</v>
       </c>
       <c r="Q30" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R30" t="n">
         <v>2625.087782060009</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>355.3510445939355</v>
+        <v>169.2474495865784</v>
       </c>
       <c r="C31" t="n">
-        <v>196.9173193736787</v>
+        <v>169.2474495865784</v>
       </c>
       <c r="D31" t="n">
-        <v>196.9173193736787</v>
+        <v>169.2474495865784</v>
       </c>
       <c r="E31" t="n">
-        <v>196.9173193736787</v>
+        <v>169.2474495865784</v>
       </c>
       <c r="F31" t="n">
-        <v>196.9173193736787</v>
+        <v>169.2474495865784</v>
       </c>
       <c r="G31" t="n">
-        <v>196.9173193736787</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H31" t="n">
-        <v>196.9173193736787</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I31" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J31" t="n">
-        <v>112.9886256529933</v>
+        <v>112.988625652993</v>
       </c>
       <c r="K31" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192172</v>
       </c>
       <c r="L31" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639827</v>
       </c>
       <c r="M31" t="n">
-        <v>790.1587150323425</v>
+        <v>790.1587150323421</v>
       </c>
       <c r="N31" t="n">
-        <v>1062.584871907533</v>
+        <v>1062.584871907532</v>
       </c>
       <c r="O31" t="n">
         <v>1298.984009272058</v>
@@ -6649,22 +6649,22 @@
         <v>1333.358518827819</v>
       </c>
       <c r="T31" t="n">
-        <v>1119.835934851223</v>
+        <v>1119.835934851222</v>
       </c>
       <c r="U31" t="n">
-        <v>1119.835934851223</v>
+        <v>841.2066947110631</v>
       </c>
       <c r="V31" t="n">
-        <v>954.2742663427728</v>
+        <v>597.0246642128261</v>
       </c>
       <c r="W31" t="n">
-        <v>954.2742663427728</v>
+        <v>597.0246642128261</v>
       </c>
       <c r="X31" t="n">
-        <v>736.7871731524053</v>
+        <v>379.5375710224586</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.4970517165252</v>
+        <v>169.2474495865784</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.348322904832</v>
+        <v>2431.528477669228</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.38580596442</v>
+        <v>2062.565960728816</v>
       </c>
       <c r="D32" t="n">
-        <v>1618.120107357669</v>
+        <v>1704.300262122066</v>
       </c>
       <c r="E32" t="n">
-        <v>1247.155298673469</v>
+        <v>1318.512009523821</v>
       </c>
       <c r="F32" t="n">
-        <v>836.1693938838614</v>
+        <v>907.5261047342137</v>
       </c>
       <c r="G32" t="n">
-        <v>419.918592385074</v>
+        <v>491.2753032354263</v>
       </c>
       <c r="H32" t="n">
-        <v>110.2672012943146</v>
+        <v>181.623912144667</v>
       </c>
       <c r="I32" t="n">
         <v>94.19862320290831</v>
@@ -6725,25 +6725,25 @@
         <v>4709.931160145416</v>
       </c>
       <c r="S32" t="n">
-        <v>4644.145521276389</v>
+        <v>4587.61225434008</v>
       </c>
       <c r="T32" t="n">
-        <v>4433.009540653196</v>
+        <v>4376.476273716888</v>
       </c>
       <c r="U32" t="n">
-        <v>4179.38479581953</v>
+        <v>4194.208239733573</v>
       </c>
       <c r="V32" t="n">
-        <v>3848.321908475959</v>
+        <v>3863.145352390003</v>
       </c>
       <c r="W32" t="n">
-        <v>3495.553253205845</v>
+        <v>3510.376697119889</v>
       </c>
       <c r="X32" t="n">
-        <v>3122.087494944765</v>
+        <v>3136.910938858809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.948162968954</v>
+        <v>2746.771606882997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J33" t="n">
-        <v>129.4953301443201</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K33" t="n">
-        <v>267.9778490088835</v>
+        <v>654.628558638341</v>
       </c>
       <c r="L33" t="n">
-        <v>500.5072265817309</v>
+        <v>887.1579362111884</v>
       </c>
       <c r="M33" t="n">
-        <v>1179.170064293756</v>
+        <v>1177.865620308784</v>
       </c>
       <c r="N33" t="n">
-        <v>1491.980560677451</v>
+        <v>1490.676116692479</v>
       </c>
       <c r="O33" t="n">
-        <v>2145.844953262855</v>
+        <v>1830.566812309317</v>
       </c>
       <c r="P33" t="n">
         <v>2338.347565384828</v>
@@ -6856,13 +6856,13 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J34" t="n">
-        <v>172.6318791581559</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K34" t="n">
         <v>386.3678594295428</v>
       </c>
       <c r="L34" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794711</v>
       </c>
       <c r="M34" t="n">
         <v>1028.731729052993</v>
@@ -6883,7 +6883,7 @@
         <v>1958.659390511296</v>
       </c>
       <c r="S34" t="n">
-        <v>1829.118721170427</v>
+        <v>1829.118721170428</v>
       </c>
       <c r="T34" t="n">
         <v>1676.450390336533</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2431.528477669228</v>
+        <v>2345.348322904831</v>
       </c>
       <c r="C35" t="n">
-        <v>2062.565960728816</v>
+        <v>1976.385805964419</v>
       </c>
       <c r="D35" t="n">
-        <v>1704.300262122066</v>
+        <v>1618.120107357669</v>
       </c>
       <c r="E35" t="n">
-        <v>1318.512009523821</v>
+        <v>1232.331854759424</v>
       </c>
       <c r="F35" t="n">
-        <v>907.5261047342137</v>
+        <v>821.3459499698167</v>
       </c>
       <c r="G35" t="n">
-        <v>491.2753032354263</v>
+        <v>419.918592385074</v>
       </c>
       <c r="H35" t="n">
         <v>181.623912144667</v>
@@ -6935,25 +6935,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J35" t="n">
-        <v>352.4625266553653</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K35" t="n">
-        <v>860.2779741677805</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L35" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M35" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N35" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O35" t="n">
         <v>3777.360983129468</v>
       </c>
       <c r="P35" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q35" t="n">
         <v>4658.401460222604</v>
@@ -6968,19 +6968,19 @@
         <v>4361.652829802843</v>
       </c>
       <c r="U35" t="n">
-        <v>4108.028084969177</v>
+        <v>4179.384795819529</v>
       </c>
       <c r="V35" t="n">
-        <v>3848.321908475959</v>
+        <v>3848.321908475958</v>
       </c>
       <c r="W35" t="n">
-        <v>3510.376697119889</v>
+        <v>3495.553253205844</v>
       </c>
       <c r="X35" t="n">
-        <v>3136.910938858809</v>
+        <v>3122.087494944764</v>
       </c>
       <c r="Y35" t="n">
-        <v>2746.771606882997</v>
+        <v>2731.948162968953</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J36" t="n">
-        <v>129.4953301443201</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K36" t="n">
-        <v>267.9778490088835</v>
+        <v>654.628558638341</v>
       </c>
       <c r="L36" t="n">
-        <v>550.7656274259953</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.521324636091</v>
+        <v>1562.53447410049</v>
       </c>
       <c r="N36" t="n">
-        <v>2089.880771619903</v>
+        <v>1875.344970484185</v>
       </c>
       <c r="O36" t="n">
-        <v>2353.821468121346</v>
+        <v>2139.285666985627</v>
       </c>
       <c r="P36" t="n">
-        <v>2546.324080243319</v>
+        <v>2331.7882791076</v>
       </c>
       <c r="Q36" t="n">
-        <v>2625.087782060009</v>
+        <v>2618.528495782782</v>
       </c>
       <c r="R36" t="n">
         <v>2625.087782060009</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.9267044762033</v>
+        <v>640.9267044762031</v>
       </c>
       <c r="C37" t="n">
-        <v>543.3472323986488</v>
+        <v>543.3472323986485</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5873038366653</v>
+        <v>464.5873038366651</v>
       </c>
       <c r="E37" t="n">
-        <v>388.0309211046246</v>
+        <v>388.0309211046243</v>
       </c>
       <c r="F37" t="n">
-        <v>312.4976844570665</v>
+        <v>312.4976844570663</v>
       </c>
       <c r="G37" t="n">
-        <v>215.6229908355101</v>
+        <v>215.62299083551</v>
       </c>
       <c r="H37" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309762</v>
       </c>
       <c r="I37" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J37" t="n">
-        <v>172.6318791581558</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3678594295427</v>
+        <v>386.3678594295425</v>
       </c>
       <c r="L37" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M37" t="n">
         <v>1028.731729052993</v>
@@ -7135,10 +7135,10 @@
         <v>1057.287166796933</v>
       </c>
       <c r="X37" t="n">
-        <v>900.6543267492685</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2184584560907</v>
+        <v>751.2184584560905</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>94.19862320290834</v>
       </c>
       <c r="J38" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K38" t="n">
-        <v>860.2779741677796</v>
+        <v>860.27797416778</v>
       </c>
       <c r="L38" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M38" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N38" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O38" t="n">
         <v>3777.360983129468</v>
@@ -7193,7 +7193,7 @@
         <v>4324.639697485003</v>
       </c>
       <c r="Q38" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222605</v>
       </c>
       <c r="R38" t="n">
         <v>4709.931160145416</v>
@@ -7257,16 +7257,16 @@
         <v>654.6285586383411</v>
       </c>
       <c r="L39" t="n">
-        <v>963.1079353265845</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M39" t="n">
-        <v>1253.81561942418</v>
+        <v>1569.093760377718</v>
       </c>
       <c r="N39" t="n">
-        <v>1566.626115807875</v>
+        <v>1881.904256761413</v>
       </c>
       <c r="O39" t="n">
-        <v>1830.566812309317</v>
+        <v>2145.844953262855</v>
       </c>
       <c r="P39" t="n">
         <v>2338.347565384828</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.9267044762033</v>
+        <v>640.9267044762025</v>
       </c>
       <c r="C40" t="n">
-        <v>543.3472323986487</v>
+        <v>543.3472323986479</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5873038366652</v>
+        <v>464.5873038366644</v>
       </c>
       <c r="E40" t="n">
-        <v>388.0309211046244</v>
+        <v>388.0309211046236</v>
       </c>
       <c r="F40" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570656</v>
       </c>
       <c r="G40" t="n">
-        <v>215.6229908355099</v>
+        <v>215.62299083551</v>
       </c>
       <c r="H40" t="n">
-        <v>136.0630662309764</v>
+        <v>136.0630662309762</v>
       </c>
       <c r="I40" t="n">
         <v>94.19862320290834</v>
       </c>
       <c r="J40" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581557</v>
       </c>
       <c r="K40" t="n">
-        <v>386.367859429543</v>
+        <v>386.3678594295425</v>
       </c>
       <c r="L40" t="n">
-        <v>695.8445609794712</v>
+        <v>695.8445609794707</v>
       </c>
       <c r="M40" t="n">
         <v>1028.731729052993</v>
@@ -7354,7 +7354,7 @@
         <v>2000.899469352691</v>
       </c>
       <c r="R40" t="n">
-        <v>1958.659390511296</v>
+        <v>1958.659390511295</v>
       </c>
       <c r="S40" t="n">
         <v>1829.118721170427</v>
@@ -7372,10 +7372,10 @@
         <v>1057.287166796933</v>
       </c>
       <c r="X40" t="n">
-        <v>900.6543267492684</v>
+        <v>900.6543267492681</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2184584560907</v>
+        <v>751.2184584560899</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.348322904832</v>
+        <v>2416.705033755183</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.38580596442</v>
+        <v>2062.565960728816</v>
       </c>
       <c r="D41" t="n">
-        <v>1618.120107357669</v>
+        <v>1704.300262122066</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.331854759425</v>
+        <v>1318.512009523821</v>
       </c>
       <c r="F41" t="n">
-        <v>836.1693938838614</v>
+        <v>907.5261047342136</v>
       </c>
       <c r="G41" t="n">
-        <v>491.2753032354263</v>
+        <v>491.2753032354262</v>
       </c>
       <c r="H41" t="n">
-        <v>181.623912144667</v>
+        <v>181.6239121446669</v>
       </c>
       <c r="I41" t="n">
-        <v>94.19862320290834</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J41" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K41" t="n">
-        <v>860.2779741677805</v>
+        <v>860.2779741677795</v>
       </c>
       <c r="L41" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M41" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N41" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O41" t="n">
         <v>3777.360983129468</v>
       </c>
       <c r="P41" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q41" t="n">
-        <v>4658.401460222605</v>
+        <v>4658.401460222604</v>
       </c>
       <c r="R41" t="n">
         <v>4709.931160145416</v>
@@ -7439,22 +7439,22 @@
         <v>4572.788810426036</v>
       </c>
       <c r="T41" t="n">
-        <v>4361.652829802844</v>
+        <v>4361.652829802843</v>
       </c>
       <c r="U41" t="n">
-        <v>4179.38479581953</v>
+        <v>4179.384795819529</v>
       </c>
       <c r="V41" t="n">
-        <v>3848.321908475959</v>
+        <v>3848.321908475958</v>
       </c>
       <c r="W41" t="n">
-        <v>3495.553253205845</v>
+        <v>3495.553253205844</v>
       </c>
       <c r="X41" t="n">
-        <v>3122.087494944765</v>
+        <v>3122.087494944764</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.948162968954</v>
+        <v>2803.304873819305</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I42" t="n">
-        <v>94.19862320290834</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J42" t="n">
         <v>254.3254551313249</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.9267044762037</v>
+        <v>640.926704476204</v>
       </c>
       <c r="C43" t="n">
-        <v>543.347232398649</v>
+        <v>543.3472323986495</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5873038366655</v>
+        <v>464.587303836666</v>
       </c>
       <c r="E43" t="n">
-        <v>388.0309211046247</v>
+        <v>388.0309211046252</v>
       </c>
       <c r="F43" t="n">
-        <v>312.4976844570666</v>
+        <v>312.4976844570672</v>
       </c>
       <c r="G43" t="n">
-        <v>215.6229908355102</v>
+        <v>215.6229908355101</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0630662309764</v>
+        <v>136.0630662309763</v>
       </c>
       <c r="I43" t="n">
-        <v>94.19862320290834</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J43" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K43" t="n">
         <v>386.3678594295428</v>
@@ -7603,16 +7603,16 @@
         <v>1458.675403339077</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.347625983542</v>
+        <v>1275.347625983543</v>
       </c>
       <c r="W43" t="n">
         <v>1057.287166796934</v>
       </c>
       <c r="X43" t="n">
-        <v>900.6543267492689</v>
+        <v>900.6543267492692</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2184584560911</v>
+        <v>751.2184584560914</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2431.528477669228</v>
+        <v>2288.815055968523</v>
       </c>
       <c r="C44" t="n">
-        <v>2062.565960728816</v>
+        <v>1919.852539028111</v>
       </c>
       <c r="D44" t="n">
-        <v>1704.300262122066</v>
+        <v>1561.586840421361</v>
       </c>
       <c r="E44" t="n">
-        <v>1318.512009523821</v>
+        <v>1175.798587823117</v>
       </c>
       <c r="F44" t="n">
-        <v>907.5261047342137</v>
+        <v>764.8126830335091</v>
       </c>
       <c r="G44" t="n">
-        <v>491.2753032354263</v>
+        <v>348.5618815347217</v>
       </c>
       <c r="H44" t="n">
-        <v>181.623912144667</v>
+        <v>110.2672012943146</v>
       </c>
       <c r="I44" t="n">
-        <v>94.19862320290834</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J44" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553643</v>
       </c>
       <c r="K44" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677797</v>
       </c>
       <c r="L44" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M44" t="n">
-        <v>2318.304158787664</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N44" t="n">
         <v>3091.984352769975</v>
       </c>
       <c r="O44" t="n">
-        <v>3777.360983129469</v>
+        <v>3777.360983129468</v>
       </c>
       <c r="P44" t="n">
-        <v>4324.639697485004</v>
+        <v>4324.639697485003</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.401460222605</v>
+        <v>4658.401460222604</v>
       </c>
       <c r="R44" t="n">
         <v>4709.931160145416</v>
       </c>
       <c r="S44" t="n">
-        <v>4572.788810426036</v>
+        <v>4587.61225434008</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.652829802844</v>
+        <v>4376.476273716888</v>
       </c>
       <c r="U44" t="n">
-        <v>4179.38479581953</v>
+        <v>4122.851528883221</v>
       </c>
       <c r="V44" t="n">
-        <v>3848.321908475959</v>
+        <v>3791.788641539651</v>
       </c>
       <c r="W44" t="n">
-        <v>3495.553253205845</v>
+        <v>3439.019986269537</v>
       </c>
       <c r="X44" t="n">
-        <v>3122.087494944765</v>
+        <v>3065.554228008457</v>
       </c>
       <c r="Y44" t="n">
-        <v>2746.771606882997</v>
+        <v>2675.414896032645</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I45" t="n">
-        <v>94.19862320290834</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J45" t="n">
-        <v>254.3254551313249</v>
+        <v>129.4953301443202</v>
       </c>
       <c r="K45" t="n">
-        <v>654.6285586383411</v>
+        <v>529.7984336513364</v>
       </c>
       <c r="L45" t="n">
-        <v>887.1579362111886</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M45" t="n">
-        <v>1177.865620308784</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N45" t="n">
-        <v>1490.676116692479</v>
+        <v>1732.977933555899</v>
       </c>
       <c r="O45" t="n">
-        <v>1824.00752603209</v>
+        <v>1996.918630057341</v>
       </c>
       <c r="P45" t="n">
-        <v>2331.7882791076</v>
+        <v>2504.699383132852</v>
       </c>
       <c r="Q45" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R45" t="n">
         <v>2625.087782060009</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.9267044762032</v>
+        <v>640.9267044762033</v>
       </c>
       <c r="C46" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986487</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366652</v>
       </c>
       <c r="E46" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046244</v>
       </c>
       <c r="F46" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570664</v>
       </c>
       <c r="G46" t="n">
-        <v>215.6229908355099</v>
+        <v>215.62299083551</v>
       </c>
       <c r="H46" t="n">
         <v>136.0630662309764</v>
       </c>
       <c r="I46" t="n">
-        <v>94.19862320290832</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J46" t="n">
-        <v>172.6318791581562</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K46" t="n">
         <v>386.3678594295428</v>
       </c>
       <c r="L46" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794709</v>
       </c>
       <c r="M46" t="n">
         <v>1028.731729052993</v>
@@ -7837,19 +7837,19 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U46" t="n">
-        <v>1458.675403339077</v>
+        <v>1458.675403339076</v>
       </c>
       <c r="V46" t="n">
         <v>1275.347625983542</v>
       </c>
       <c r="W46" t="n">
-        <v>1057.287166796934</v>
+        <v>1057.287166796933</v>
       </c>
       <c r="X46" t="n">
-        <v>900.6543267492686</v>
+        <v>900.6543267492684</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2184584560906</v>
+        <v>751.2184584560907</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093848</v>
+        <v>337.2886456526676</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>265.0858203424869</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1557733991275</v>
       </c>
       <c r="K6" t="n">
-        <v>93.94706119473</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>105.7948827599075</v>
       </c>
       <c r="M6" t="n">
-        <v>455.5401165541721</v>
+        <v>455.5401165541722</v>
       </c>
       <c r="N6" t="n">
-        <v>442.9248731405339</v>
+        <v>442.924873140534</v>
       </c>
       <c r="O6" t="n">
-        <v>169.6055587797745</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2830759058785</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8048311726891</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.2680904989475</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>38.89612811715142</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>44.14051976468339</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>76.71717082363267</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715142</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>76.71717082363267</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>24.33959416011061</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>76.71717082363273</v>
+        <v>24.33959416011061</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>202.8082061640415</v>
+        <v>76.71717082363267</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>234.4168818959598</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>50.76606145885285</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>395.1799394635699</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>44.14051976468352</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>391.8738925398278</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>76.71717082363273</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>50.7660614588529</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>17.71405246594117</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>38.89612811715142</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298312</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>76.71717082363227</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>24.3395941601101</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492834</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>70.09162912946294</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>42.0451485964313</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715139</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>169.4345470513639</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0365295159958</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>135.0236148923578</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0100359697639</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6915092090628</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U13" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>178.6869703854397</v>
       </c>
       <c r="W13" t="n">
-        <v>55.76731068400741</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.2330494769576</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.0100359697638</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>188.4909732587351</v>
       </c>
       <c r="T16" t="n">
-        <v>211.3873581368307</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U16" t="n">
         <v>275.8429477387573</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>39.15929227657341</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E19" t="n">
         <v>136.0365295159958</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G19" t="n">
         <v>156.1516572966162</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I19" t="n">
-        <v>101.6915092090628</v>
+        <v>61.77852610199204</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>146.6541297173336</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>241.7402101932546</v>
       </c>
       <c r="W19" t="n">
-        <v>276.1255652060176</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E22" t="n">
-        <v>136.0365295159958</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F22" t="n">
-        <v>4.618964827446487</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S22" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.7402101932546</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.1255652060176</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>88.20651403678255</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D25" t="n">
-        <v>58.26365037615326</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E25" t="n">
         <v>136.0365295159957</v>
@@ -24415,7 +24415,7 @@
         <v>188.4909732587351</v>
       </c>
       <c r="T25" t="n">
-        <v>211.3873581368306</v>
+        <v>13.33625382744777</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.1872202215213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.4345470513639</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D28" t="n">
-        <v>138.218039887639</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E28" t="n">
-        <v>136.0365295159958</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F28" t="n">
-        <v>58.39787852383994</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G28" t="n">
         <v>156.1516572966162</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S28" t="n">
-        <v>188.4909732587352</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>201.827227086183</v>
       </c>
       <c r="W28" t="n">
-        <v>276.1255652060176</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.8493879680545</v>
       </c>
       <c r="D31" t="n">
-        <v>138.2180398876389</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E31" t="n">
-        <v>136.0365295159957</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F31" t="n">
-        <v>135.0236148923578</v>
+        <v>135.0236148923579</v>
       </c>
       <c r="G31" t="n">
-        <v>156.1516572966161</v>
+        <v>81.85331917678285</v>
       </c>
       <c r="H31" t="n">
-        <v>139.0100359697638</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>77.83415836988917</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.1255652060175</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796424</v>
@@ -26323,7 +26323,7 @@
         <v>117985.5641044939</v>
       </c>
       <c r="F2" t="n">
-        <v>117985.5641044938</v>
+        <v>117985.5641044939</v>
       </c>
       <c r="G2" t="n">
         <v>117985.5641044939</v>
@@ -26341,7 +26341,7 @@
         <v>117985.5641044938</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796424</v>
@@ -26366,28 +26366,28 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>132580.7637698183</v>
+        <v>132580.7637698186</v>
       </c>
       <c r="D3" t="n">
-        <v>305980.1692436718</v>
+        <v>305980.1692436715</v>
       </c>
       <c r="E3" t="n">
         <v>497476.0416545636</v>
       </c>
       <c r="F3" t="n">
-        <v>2.984279490192421e-11</v>
+        <v>1.27897692436818e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>77193.64523570852</v>
+        <v>77193.64523570859</v>
       </c>
       <c r="K3" t="n">
         <v>30636.89311622867</v>
@@ -26396,13 +26396,13 @@
         <v>122100.6567693021</v>
       </c>
       <c r="M3" t="n">
-        <v>125398.3356886932</v>
+        <v>125398.3356886933</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8317.94650445867</v>
+        <v>8317.946504458792</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>279327.2236236408</v>
       </c>
       <c r="C4" t="n">
-        <v>241095.0658954908</v>
+        <v>241095.0658954907</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>18521.82023475741</v>
+        <v>18521.82023475745</v>
       </c>
       <c r="F4" t="n">
-        <v>18521.82023475745</v>
+        <v>18521.82023475746</v>
       </c>
       <c r="G4" t="n">
         <v>18521.8202347574</v>
       </c>
       <c r="H4" t="n">
-        <v>18521.82023475738</v>
+        <v>18521.82023475742</v>
       </c>
       <c r="I4" t="n">
         <v>18521.82023475737</v>
@@ -26442,19 +26442,19 @@
         <v>18521.82023475738</v>
       </c>
       <c r="K4" t="n">
-        <v>18521.82023475746</v>
+        <v>18521.8202347574</v>
       </c>
       <c r="L4" t="n">
         <v>38345.66140262126</v>
       </c>
       <c r="M4" t="n">
-        <v>38345.66140262128</v>
+        <v>38345.66140262129</v>
       </c>
       <c r="N4" t="n">
         <v>38345.66140262122</v>
       </c>
       <c r="O4" t="n">
-        <v>38345.66140262123</v>
+        <v>38345.66140262132</v>
       </c>
       <c r="P4" t="n">
         <v>38345.66140262123</v>
@@ -26470,7 +26470,7 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>59625.30989075359</v>
+        <v>59625.3098907536</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26479,7 @@
         <v>89896.18181098948</v>
       </c>
       <c r="F5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.1818109895</v>
       </c>
       <c r="G5" t="n">
         <v>89896.18181098948</v>
@@ -26488,13 +26488,13 @@
         <v>89896.18181098948</v>
       </c>
       <c r="I5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.1818109895</v>
       </c>
       <c r="J5" t="n">
         <v>89896.18181098948</v>
       </c>
       <c r="K5" t="n">
-        <v>89896.1818109895</v>
+        <v>89896.18181098948</v>
       </c>
       <c r="L5" t="n">
         <v>94960.9784563688</v>
@@ -26506,10 +26506,10 @@
         <v>94960.97845636882</v>
       </c>
       <c r="O5" t="n">
-        <v>94960.97845636882</v>
+        <v>94960.9784563688</v>
       </c>
       <c r="P5" t="n">
-        <v>94960.97845636882</v>
+        <v>94960.9784563688</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316699.8204257812</v>
+        <v>-316699.8204257811</v>
       </c>
       <c r="C6" t="n">
-        <v>-310144.8740764202</v>
+        <v>-310144.8740764204</v>
       </c>
       <c r="D6" t="n">
-        <v>-413600.0305433596</v>
+        <v>-413600.0305433593</v>
       </c>
       <c r="E6" t="n">
-        <v>-487908.4795958167</v>
+        <v>-487994.6579520692</v>
       </c>
       <c r="F6" t="n">
-        <v>9567.562058746873</v>
+        <v>9481.38370249441</v>
       </c>
       <c r="G6" t="n">
-        <v>9567.562058747033</v>
+        <v>9481.383702494555</v>
       </c>
       <c r="H6" t="n">
-        <v>9567.562058747004</v>
+        <v>9481.383702494453</v>
       </c>
       <c r="I6" t="n">
-        <v>9567.562058746931</v>
+        <v>9481.383702494453</v>
       </c>
       <c r="J6" t="n">
-        <v>-67626.08317696155</v>
+        <v>-67712.2615332141</v>
       </c>
       <c r="K6" t="n">
-        <v>-21069.3310574818</v>
+        <v>-21155.50941373419</v>
       </c>
       <c r="L6" t="n">
         <v>-132251.0311486497</v>
@@ -26555,13 +26555,13 @@
         <v>-135548.7100680409</v>
       </c>
       <c r="N6" t="n">
-        <v>-10150.37437934759</v>
+        <v>-10150.37437934762</v>
       </c>
       <c r="O6" t="n">
-        <v>-18468.3208838063</v>
+        <v>-18468.32088380653</v>
       </c>
       <c r="P6" t="n">
-        <v>-10150.37437934765</v>
+        <v>-10150.37437934762</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>10.39743313057344</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="G2" t="n">
         <v>10.3974331305734</v>
       </c>
-      <c r="F2" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.39743313057339</v>
-      </c>
       <c r="H2" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I2" t="n">
         <v>10.39743313057345</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="K2" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="L2" t="n">
         <v>70.64314374184882</v>
       </c>
       <c r="M2" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N2" t="n">
         <v>70.64314374184876</v>
       </c>
       <c r="O2" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P2" t="n">
         <v>70.64314374184876</v>
@@ -26738,7 +26738,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>126.3765120634672</v>
+        <v>126.3765120634674</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26777,7 +26777,7 @@
         <v>799.5929527947249</v>
       </c>
       <c r="P3" t="n">
-        <v>799.5929527947249</v>
+        <v>799.592952794725</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>382.2812817067434</v>
+        <v>382.2812817067436</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F2" t="n">
-        <v>3.730349362740526e-14</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057334</v>
+        <v>10.39743313057343</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.24571061127531</v>
+        <v>60.24571061127537</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057334</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>103.3631293766779</v>
+        <v>103.3631293766781</v>
       </c>
       <c r="D3" t="n">
-        <v>251.3671521536194</v>
+        <v>251.3671521536193</v>
       </c>
       <c r="E3" t="n">
         <v>421.849288577638</v>
@@ -27012,10 +27012,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>119.0392477550768</v>
+        <v>119.0392477550771</v>
       </c>
       <c r="D4" t="n">
-        <v>292.0059910478122</v>
+        <v>292.005991047812</v>
       </c>
       <c r="E4" t="n">
         <v>503.1955172817983</v>
@@ -27039,10 +27039,10 @@
         <v>119.0392477550771</v>
       </c>
       <c r="L4" t="n">
-        <v>292.0059910478121</v>
+        <v>292.0059910478119</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817982</v>
+        <v>503.1955172817983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="K2" t="n">
-        <v>3.730349362740526e-14</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057334</v>
+        <v>10.39743313057343</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>119.0392477550768</v>
+        <v>119.0392477550771</v>
       </c>
       <c r="L4" t="n">
-        <v>292.0059910478122</v>
+        <v>292.005991047812</v>
       </c>
       <c r="M4" t="n">
         <v>503.1955172817983</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>242.6920892138793</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>100.6409714405308</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>72.07934525289181</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>166.6426554292897</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>142.9828744134483</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>90.42516245839145</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27588,7 +27588,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>150.620226560037</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>32.51340952873949</v>
+        <v>32.51340952873926</v>
       </c>
       <c r="H5" t="n">
-        <v>334.2717731542798</v>
+        <v>334.2717731542797</v>
       </c>
       <c r="I5" t="n">
-        <v>190.8894353741172</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>117.9555558269515</v>
       </c>
       <c r="S5" t="n">
-        <v>197.4429649886724</v>
+        <v>18.34667206286599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.8718769749541</v>
       </c>
       <c r="U5" t="n">
-        <v>199.6565817463908</v>
+        <v>251.3050092054643</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>120.8008984796305</v>
+        <v>137.0716884391496</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.6101510330648</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.03761757124319</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>74.42905980877045</v>
       </c>
       <c r="S6" t="n">
-        <v>166.6340717775285</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0690681798563</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>1.585676742365877</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9911628507394</v>
+        <v>167.7630872875246</v>
       </c>
       <c r="H7" t="n">
         <v>160.2010048222253</v>
       </c>
       <c r="I7" t="n">
-        <v>148.5971388304394</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>77.24721070163041</v>
+        <v>77.24721070163038</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.07918993011083</v>
+        <v>67.0791899301108</v>
       </c>
       <c r="R7" t="n">
         <v>167.0465351695316</v>
       </c>
       <c r="S7" t="n">
-        <v>220.0450607644204</v>
+        <v>220.0450607644203</v>
       </c>
       <c r="T7" t="n">
         <v>226.971868761563</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>43.98398258378785</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>164.3037342429164</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>134.9863473781465</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>166.4971642965799</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="C11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="D11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="E11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="G11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="H11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="I11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="T11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="U11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="V11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="W11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="X11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="C13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="D13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="E13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="G13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="H13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="I13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="J13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="K13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="L13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="M13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="N13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="O13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="P13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="S13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="T13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="U13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="V13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="W13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="X13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057344</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="F14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="G14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="H14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="I14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="U14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="V14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="W14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="X14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="D16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="E16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="G16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="I16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="J16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="K16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="L16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="M16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="N16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="O16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="P16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="R16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="T16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="U16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="V16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="W16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="X16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="K19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="L19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="M19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="N19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="O19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="P19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="R19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D20" t="n">
-        <v>10.39743313057301</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057306</v>
       </c>
       <c r="W20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="23">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057187</v>
       </c>
       <c r="G26" t="n">
-        <v>10.39743313057295</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="K28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="L28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="M28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="N28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="O28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="P28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="R28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="C29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="D29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="E29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="F29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="G29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="H29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="I29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="T29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="U29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="V29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="W29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="X29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="C31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="D31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="E31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="F31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="G31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="H31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="I31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="J31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="K31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="L31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="M31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="N31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="O31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="P31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="R31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="S31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="T31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="U31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="V31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="W31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="X31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.39743313057345</v>
+        <v>10.39743313057339</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>14.67520947490328</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29767,43 +29767,43 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14.67520947490341</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>70.64314374184882</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>70.64314374184882</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>14.67520947490414</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,13 +30040,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V35" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>14.67520947490362</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="38">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>14.6752094749047</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>14.67520947490334</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>70.64314374184876</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.64314374184876</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>70.64314374184876</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>70.64314374184876</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>14.67520947490338</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.64314374184876</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.67520947490334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5080462796521292</v>
+        <v>0.50804627965213</v>
       </c>
       <c r="H5" t="n">
-        <v>5.20302896148737</v>
+        <v>5.203028961487378</v>
       </c>
       <c r="I5" t="n">
-        <v>19.58645419628873</v>
+        <v>19.58645419628876</v>
       </c>
       <c r="J5" t="n">
-        <v>43.11979292762494</v>
+        <v>43.11979292762501</v>
       </c>
       <c r="K5" t="n">
-        <v>64.62539194529958</v>
+        <v>64.62539194529968</v>
       </c>
       <c r="L5" t="n">
-        <v>80.17351327620345</v>
+        <v>80.17351327620358</v>
       </c>
       <c r="M5" t="n">
-        <v>89.208481301967</v>
+        <v>89.20848130196714</v>
       </c>
       <c r="N5" t="n">
-        <v>90.65196779402862</v>
+        <v>90.65196779402876</v>
       </c>
       <c r="O5" t="n">
-        <v>85.60008260073776</v>
+        <v>85.60008260073789</v>
       </c>
       <c r="P5" t="n">
-        <v>73.0576900718258</v>
+        <v>73.05769007182592</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.86328268178391</v>
+        <v>54.863282681784</v>
       </c>
       <c r="R5" t="n">
-        <v>31.91356211419809</v>
+        <v>31.91356211419814</v>
       </c>
       <c r="S5" t="n">
-        <v>11.57710459757291</v>
+        <v>11.57710459757292</v>
       </c>
       <c r="T5" t="n">
-        <v>2.223972589177197</v>
+        <v>2.2239725891772</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04064370237217033</v>
+        <v>0.0406437023721704</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2718287240610427</v>
+        <v>0.2718287240610432</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62529320343165</v>
+        <v>2.625293203431654</v>
       </c>
       <c r="I6" t="n">
-        <v>9.359015280171867</v>
+        <v>9.359015280171883</v>
       </c>
       <c r="J6" t="n">
-        <v>25.68185326753914</v>
+        <v>25.68185326753918</v>
       </c>
       <c r="K6" t="n">
-        <v>43.894377779629</v>
+        <v>43.89437777962907</v>
       </c>
       <c r="L6" t="n">
-        <v>59.02140782737685</v>
+        <v>59.02140782737695</v>
       </c>
       <c r="M6" t="n">
-        <v>68.87519907458964</v>
+        <v>68.87519907458974</v>
       </c>
       <c r="N6" t="n">
-        <v>70.69812064954287</v>
+        <v>70.69812064954299</v>
       </c>
       <c r="O6" t="n">
-        <v>64.67496839534819</v>
+        <v>64.67496839534829</v>
       </c>
       <c r="P6" t="n">
-        <v>51.90736398320036</v>
+        <v>51.90736398320043</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.69869818014293</v>
+        <v>34.69869818014299</v>
       </c>
       <c r="R6" t="n">
-        <v>16.87722551670229</v>
+        <v>16.87722551670232</v>
       </c>
       <c r="S6" t="n">
-        <v>5.049099326309277</v>
+        <v>5.049099326309285</v>
       </c>
       <c r="T6" t="n">
-        <v>1.095660514965343</v>
+        <v>1.095660514965345</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0178834686882265</v>
+        <v>0.01788346868822653</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2278920709341212</v>
+        <v>0.2278920709341216</v>
       </c>
       <c r="H7" t="n">
-        <v>2.02616768521428</v>
+        <v>2.026167685214283</v>
       </c>
       <c r="I7" t="n">
-        <v>6.853336096818848</v>
+        <v>6.853336096818859</v>
       </c>
       <c r="J7" t="n">
-        <v>16.11196941504237</v>
+        <v>16.1119694150424</v>
       </c>
       <c r="K7" t="n">
-        <v>26.47691515034608</v>
+        <v>26.47691515034612</v>
       </c>
       <c r="L7" t="n">
-        <v>33.88133570960563</v>
+        <v>33.88133570960569</v>
       </c>
       <c r="M7" t="n">
-        <v>35.7231179919732</v>
+        <v>35.72311799197325</v>
       </c>
       <c r="N7" t="n">
-        <v>34.87370209121877</v>
+        <v>34.87370209121883</v>
       </c>
       <c r="O7" t="n">
-        <v>32.21150835348835</v>
+        <v>32.2115083534884</v>
       </c>
       <c r="P7" t="n">
-        <v>27.56251010643225</v>
+        <v>27.5625101064323</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.08285332158355</v>
+        <v>19.08285332158358</v>
       </c>
       <c r="R7" t="n">
-        <v>10.24685620763785</v>
+        <v>10.24685620763787</v>
       </c>
       <c r="S7" t="n">
-        <v>3.971537272551911</v>
+        <v>3.971537272551918</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9737206667185178</v>
+        <v>0.9737206667185193</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01243047659640663</v>
+        <v>0.01243047659640665</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>123.9248535180649</v>
       </c>
       <c r="J44" t="n">
-        <v>272.821919104568</v>
+        <v>272.8219191045681</v>
       </c>
       <c r="K44" t="n">
         <v>408.889334951003</v>
@@ -34375,19 +34375,19 @@
         <v>507.2633764749892</v>
       </c>
       <c r="M44" t="n">
-        <v>564.4282455172531</v>
+        <v>564.4282455172532</v>
       </c>
       <c r="N44" t="n">
-        <v>573.5612846212854</v>
+        <v>573.5612846212855</v>
       </c>
       <c r="O44" t="n">
-        <v>541.5976567846923</v>
+        <v>541.5976567846924</v>
       </c>
       <c r="P44" t="n">
-        <v>462.2410697610952</v>
+        <v>462.2410697610953</v>
       </c>
       <c r="Q44" t="n">
-        <v>347.1237928888898</v>
+        <v>347.1237928888899</v>
       </c>
       <c r="R44" t="n">
         <v>201.9193198833835</v>
@@ -34399,7 +34399,7 @@
         <v>14.07122874717149</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.257155522506846</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34457,7 +34457,7 @@
         <v>435.778159273125</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3119104507018</v>
+        <v>447.3119104507019</v>
       </c>
       <c r="O45" t="n">
         <v>409.2030085873155</v>
@@ -34466,16 +34466,16 @@
         <v>328.4214903658183</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.5410688503554</v>
+        <v>219.5410688503555</v>
       </c>
       <c r="R45" t="n">
-        <v>106.7833758468125</v>
+        <v>106.7833758468126</v>
       </c>
       <c r="S45" t="n">
-        <v>31.94600146307224</v>
+        <v>31.94600146307225</v>
       </c>
       <c r="T45" t="n">
-        <v>6.932320034135395</v>
+        <v>6.932320034135396</v>
       </c>
       <c r="U45" t="n">
         <v>0.113149946150197</v>
@@ -34554,10 +34554,10 @@
         <v>25.12819164766372</v>
       </c>
       <c r="T46" t="n">
-        <v>6.160798160877386</v>
+        <v>6.160798160877387</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07864848716013695</v>
+        <v>0.07864848716013696</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>134.6170405889698</v>
@@ -34784,16 +34784,16 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>207.6969052949494</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>134.2670001490827</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>31.17050357301243</v>
+        <v>31.1705035730125</v>
       </c>
       <c r="K5" t="n">
-        <v>168.6809534714838</v>
+        <v>168.6809534714839</v>
       </c>
       <c r="L5" t="n">
-        <v>262.0683128566666</v>
+        <v>262.0683128566668</v>
       </c>
       <c r="M5" t="n">
-        <v>308.3757815675268</v>
+        <v>308.3757815675269</v>
       </c>
       <c r="N5" t="n">
-        <v>298.5858286094219</v>
+        <v>298.585828609422</v>
       </c>
       <c r="O5" t="n">
-        <v>236.3020524417964</v>
+        <v>236.3020524417965</v>
       </c>
       <c r="P5" t="n">
-        <v>163.6234024880389</v>
+        <v>163.623402488039</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.8725834672391</v>
+        <v>44.8725834672392</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>24.93526194128128</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>170.5181758178487</v>
       </c>
       <c r="L6" t="n">
-        <v>291.3073733509618</v>
+        <v>26.26191080741021</v>
       </c>
       <c r="M6" t="n">
-        <v>382.2812817067434</v>
+        <v>382.2812817067436</v>
       </c>
       <c r="N6" t="n">
-        <v>382.2812817067434</v>
+        <v>382.2812817067436</v>
       </c>
       <c r="O6" t="n">
-        <v>91.68428273067828</v>
+        <v>315.9410432276334</v>
       </c>
       <c r="P6" t="n">
-        <v>236.3957252088073</v>
+        <v>236.3957252088074</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.7942118299705</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.207423324463228</v>
+        <v>4.207423324463271</v>
       </c>
       <c r="L7" t="n">
-        <v>61.47136096992177</v>
+        <v>61.47136096992183</v>
       </c>
       <c r="M7" t="n">
-        <v>75.30699495381378</v>
+        <v>75.30699495381384</v>
       </c>
       <c r="N7" t="n">
-        <v>79.00587447044737</v>
+        <v>79.00587447044742</v>
       </c>
       <c r="O7" t="n">
-        <v>56.79663626752802</v>
+        <v>56.79663626752807</v>
       </c>
       <c r="P7" t="n">
-        <v>24.84106937132574</v>
+        <v>24.84106937132578</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>161.7442746751683</v>
+        <v>35.65323933475943</v>
       </c>
       <c r="K12" t="n">
         <v>139.8813321864276</v>
@@ -35495,19 +35495,19 @@
         <v>605.7185044679516</v>
       </c>
       <c r="M12" t="n">
-        <v>293.6441253511066</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N12" t="n">
-        <v>604.7750295400575</v>
+        <v>315.9701983673684</v>
       </c>
       <c r="O12" t="n">
-        <v>266.606764142871</v>
+        <v>425.8748546418184</v>
       </c>
       <c r="P12" t="n">
         <v>194.447082951488</v>
       </c>
       <c r="Q12" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463137</v>
       </c>
       <c r="K13" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L13" t="n">
-        <v>252.3570182270359</v>
+        <v>252.357018227036</v>
       </c>
       <c r="M13" t="n">
         <v>276.003954109454</v>
@@ -35583,10 +35583,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P13" t="n">
-        <v>182.0659045918769</v>
+        <v>182.065904591877</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.97392575088244</v>
+        <v>44.97392575088248</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>79.79375909944282</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K15" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L15" t="n">
-        <v>234.8781591644923</v>
+        <v>311.595329988125</v>
       </c>
       <c r="M15" t="n">
-        <v>759.3491891011065</v>
+        <v>293.6441253511066</v>
       </c>
       <c r="N15" t="n">
-        <v>795.312572710922</v>
+        <v>315.9701983673684</v>
       </c>
       <c r="O15" t="n">
         <v>266.606764142871</v>
       </c>
       <c r="P15" t="n">
-        <v>194.447082951488</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.55929476433388</v>
+        <v>289.636582500183</v>
       </c>
       <c r="R15" t="n">
-        <v>6.625541694169399</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>18.97980045463139</v>
       </c>
       <c r="K16" t="n">
-        <v>155.649218955782</v>
+        <v>155.6492189557821</v>
       </c>
       <c r="L16" t="n">
         <v>252.357018227036</v>
@@ -35823,7 +35823,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.97392575088248</v>
+        <v>44.97392575088249</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>404.3465691990062</v>
       </c>
       <c r="L18" t="n">
-        <v>311.595329988125</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M18" t="n">
-        <v>293.6441253511066</v>
+        <v>317.9837195112172</v>
       </c>
       <c r="N18" t="n">
         <v>315.9701983673684</v>
@@ -35978,7 +35978,7 @@
         <v>266.606764142871</v>
       </c>
       <c r="P18" t="n">
-        <v>512.9098515914252</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q18" t="n">
         <v>289.636582500183</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.97980045463133</v>
+        <v>18.97980045463134</v>
       </c>
       <c r="K19" t="n">
         <v>155.649218955782</v>
@@ -36060,7 +36060,7 @@
         <v>182.0659045918769</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.97392575088243</v>
+        <v>44.97392575088244</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>404.3465691990062</v>
       </c>
       <c r="L21" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M21" t="n">
         <v>293.6441253511066</v>
@@ -36212,10 +36212,10 @@
         <v>315.9701983673684</v>
       </c>
       <c r="O21" t="n">
-        <v>343.3239349665037</v>
+        <v>290.9463583029816</v>
       </c>
       <c r="P21" t="n">
-        <v>512.9098515914252</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q21" t="n">
         <v>289.636582500183</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.97980045463133</v>
+        <v>18.97980045463137</v>
       </c>
       <c r="K22" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L22" t="n">
-        <v>252.3570182270359</v>
+        <v>252.357018227036</v>
       </c>
       <c r="M22" t="n">
         <v>276.003954109454</v>
@@ -36294,10 +36294,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P22" t="n">
-        <v>182.0659045918769</v>
+        <v>182.065904591877</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.97392575088243</v>
+        <v>44.97392575088247</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.65323933475943</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K24" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L24" t="n">
-        <v>437.6863653285338</v>
+        <v>311.595329988125</v>
       </c>
       <c r="M24" t="n">
         <v>293.6441253511066</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.65323933475943</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K27" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L27" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M27" t="n">
-        <v>759.3491891011065</v>
+        <v>528.0610072470664</v>
       </c>
       <c r="N27" t="n">
-        <v>795.312572710922</v>
+        <v>315.9701983673684</v>
       </c>
       <c r="O27" t="n">
-        <v>317.3728256017238</v>
+        <v>266.606764142871</v>
       </c>
       <c r="P27" t="n">
         <v>194.447082951488</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.97980045463133</v>
+        <v>18.97980045463139</v>
       </c>
       <c r="K28" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L28" t="n">
-        <v>252.3570182270359</v>
+        <v>252.357018227036</v>
       </c>
       <c r="M28" t="n">
         <v>276.003954109454</v>
@@ -36765,13 +36765,13 @@
         <v>275.1779362375661</v>
       </c>
       <c r="O28" t="n">
-        <v>238.7870074389144</v>
+        <v>238.7870074389145</v>
       </c>
       <c r="P28" t="n">
-        <v>182.0659045918769</v>
+        <v>182.065904591877</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.97392575088242</v>
+        <v>44.97392575088249</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.65323933475943</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K30" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L30" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M30" t="n">
-        <v>759.3491891011065</v>
+        <v>293.6441253511066</v>
       </c>
       <c r="N30" t="n">
-        <v>795.312572710922</v>
+        <v>711.1501378309383</v>
       </c>
       <c r="O30" t="n">
         <v>266.606764142871</v>
       </c>
       <c r="P30" t="n">
-        <v>238.5876027161715</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.55929476433388</v>
+        <v>289.636582500183</v>
       </c>
       <c r="R30" t="n">
-        <v>6.625541694169399</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.9798004546314</v>
+        <v>18.97980045463133</v>
       </c>
       <c r="K31" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L31" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M31" t="n">
         <v>276.003954109454</v>
@@ -37002,13 +37002,13 @@
         <v>275.1779362375661</v>
       </c>
       <c r="O31" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P31" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>35.65323933475943</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K33" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L33" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M33" t="n">
-        <v>685.5180178909344</v>
+        <v>293.6441253511066</v>
       </c>
       <c r="N33" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O33" t="n">
-        <v>660.4690834196006</v>
+        <v>343.3239349665037</v>
       </c>
       <c r="P33" t="n">
-        <v>194.447082951488</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q33" t="n">
         <v>289.636582500183</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.65323933475943</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K36" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L36" t="n">
-        <v>285.6442206233452</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M36" t="n">
-        <v>759.3491891011065</v>
+        <v>311.3581778170478</v>
       </c>
       <c r="N36" t="n">
-        <v>795.312572710922</v>
+        <v>315.9701983673684</v>
       </c>
       <c r="O36" t="n">
         <v>266.606764142871</v>
@@ -37403,10 +37403,10 @@
         <v>194.447082951488</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.55929476433388</v>
+        <v>289.636582500183</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.625541694169399</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.22551106590676</v>
+        <v>79.22551106590674</v>
       </c>
       <c r="K37" t="n">
         <v>215.8949295670574</v>
@@ -37476,13 +37476,13 @@
         <v>335.4236468488415</v>
       </c>
       <c r="O37" t="n">
-        <v>299.0327180501899</v>
+        <v>299.0327180501898</v>
       </c>
       <c r="P37" t="n">
-        <v>242.3116152031524</v>
+        <v>242.3116152031523</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.2196363621579</v>
+        <v>105.2196363621578</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>337.133093674345</v>
       </c>
       <c r="R38" t="n">
-        <v>52.05020194223449</v>
+        <v>52.0502019422338</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>404.3465691990063</v>
       </c>
       <c r="L39" t="n">
-        <v>311.5953299881247</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M39" t="n">
-        <v>293.6441253511067</v>
+        <v>317.9837195112167</v>
       </c>
       <c r="N39" t="n">
         <v>315.9701983673685</v>
@@ -37637,7 +37637,7 @@
         <v>266.606764142871</v>
       </c>
       <c r="P39" t="n">
-        <v>512.9098515914252</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q39" t="n">
         <v>289.636582500183</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.22551106590672</v>
+        <v>79.22551106590677</v>
       </c>
       <c r="K43" t="n">
         <v>215.8949295670574</v>
       </c>
       <c r="L43" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383114</v>
       </c>
       <c r="M43" t="n">
-        <v>336.2496647207293</v>
+        <v>336.2496647207294</v>
       </c>
       <c r="N43" t="n">
-        <v>335.4236468488414</v>
+        <v>335.4236468488415</v>
       </c>
       <c r="O43" t="n">
-        <v>299.0327180501898</v>
+        <v>299.0327180501899</v>
       </c>
       <c r="P43" t="n">
-        <v>242.3116152031523</v>
+        <v>242.3116152031524</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.2196363621578</v>
+        <v>105.2196363621579</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>260.8726297499555</v>
       </c>
       <c r="K44" t="n">
-        <v>512.9448964771872</v>
+        <v>512.9448964771873</v>
       </c>
       <c r="L44" t="n">
-        <v>689.1581760554524</v>
+        <v>689.1581760554525</v>
       </c>
       <c r="M44" t="n">
-        <v>783.5955457828144</v>
+        <v>783.595545782813</v>
       </c>
       <c r="N44" t="n">
-        <v>781.4951454366786</v>
+        <v>781.4951454366787</v>
       </c>
       <c r="O44" t="n">
-        <v>692.2996266257509</v>
+        <v>692.299626625751</v>
       </c>
       <c r="P44" t="n">
-        <v>552.8067821773083</v>
+        <v>552.8067821773084</v>
       </c>
       <c r="Q44" t="n">
         <v>337.133093674345</v>
       </c>
       <c r="R44" t="n">
-        <v>52.0502019422338</v>
+        <v>52.05020194223383</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>161.7442746751683</v>
+        <v>35.65323933475946</v>
       </c>
       <c r="K45" t="n">
         <v>404.3465691990063</v>
       </c>
       <c r="L45" t="n">
-        <v>234.8781591644924</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M45" t="n">
         <v>293.6441253511067</v>
@@ -38108,16 +38108,16 @@
         <v>315.9701983673685</v>
       </c>
       <c r="O45" t="n">
-        <v>336.698393272334</v>
+        <v>266.6067641428711</v>
       </c>
       <c r="P45" t="n">
         <v>512.9098515914252</v>
       </c>
       <c r="Q45" t="n">
-        <v>289.636582500183</v>
+        <v>121.6044433607652</v>
       </c>
       <c r="R45" t="n">
-        <v>6.625541694169414</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.22551106590672</v>
+        <v>79.22551106590673</v>
       </c>
       <c r="K46" t="n">
         <v>215.8949295670574</v>
       </c>
       <c r="L46" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383114</v>
       </c>
       <c r="M46" t="n">
         <v>336.2496647207293</v>
       </c>
       <c r="N46" t="n">
-        <v>335.4236468488414</v>
+        <v>335.4236468488415</v>
       </c>
       <c r="O46" t="n">
-        <v>299.0327180501898</v>
+        <v>299.0327180501899</v>
       </c>
       <c r="P46" t="n">
         <v>242.3116152031523</v>
